--- a/csec/database/English A data.xlsx
+++ b/csec/database/English A data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -19,46 +19,82 @@
     <t>id</t>
   </si>
   <si>
-    <t>p1 all answers.JPG</t>
+    <t>CSEC English A June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1rhSGCX6oMfu3qG8x5zbtLsgS1cxx3kp2</t>
+  </si>
+  <si>
+    <t>CSEC English A January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Cs8y2IrMLrb_3nQXiGewtD7pa5QeNLq1</t>
+  </si>
+  <si>
+    <t>CSEC English A June 2022 P032.pdf</t>
+  </si>
+  <si>
+    <t>15N-_9-8Ax0E6Qv05A8OwNP-lRfzsX3yR</t>
+  </si>
+  <si>
+    <t>CSEC English A June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1xAq5q_y5Vjo361z2_Arv5mpgBNlJ9C-M</t>
+  </si>
+  <si>
+    <t>CSEC English A January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1X1Xjc8T-e05H7Ll7FyqxvxkrcjfS-mCm</t>
+  </si>
+  <si>
+    <t>CSEC English A January 2024 P2.pdf</t>
+  </si>
+  <si>
+    <t>1uqXPPLL-r5ZntAzgqcvGOcsF6K6-BL2r</t>
+  </si>
+  <si>
+    <t>CSEC English A June 2020 P1 Solutions.pdf</t>
+  </si>
+  <si>
+    <t>11fpFNhs0gYNQcxKLao4gV8igGmdHE9f4</t>
+  </si>
+  <si>
+    <t>CSEC English A 2020 - 2005 P1 Solutions.JPG</t>
   </si>
   <si>
     <t>1fNhitkS0NC951LWFJcnAq4WN8byW_47U</t>
   </si>
   <si>
-    <t>2020_English_A_MayJune_Corrected_Answers.pdf</t>
-  </si>
-  <si>
-    <t>11fpFNhs0gYNQcxKLao4gV8igGmdHE9f4</t>
-  </si>
-  <si>
-    <t>English A June 2019 P2.pdf</t>
+    <t>CSEC English A June 2019 P2.pdf</t>
   </si>
   <si>
     <t>1xxomHWhIDCC-GyYtLQIzyMBGMWc1xswK</t>
   </si>
   <si>
+    <t>CSEC English A June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>16aHuhoBzQ7ph63-sANUzA5p4L7xmUj6E</t>
+  </si>
+  <si>
+    <t>CSEC English A January 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1RxJ8Ip7KwK37d2fa2V1Jb5KqC7G76dcW</t>
+  </si>
+  <si>
+    <t>CSEC English A January 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1J0T4swOjzJKNeGI8ddxAUUXA3vOLZZ99</t>
+  </si>
+  <si>
     <t>CSEC English A P3 Specimen.pdf</t>
   </si>
   <si>
     <t>1an0pXKKbZ-CDkCPoT4ta-ev7tnLe5z5y</t>
-  </si>
-  <si>
-    <t>English A June 2018 P2.pdf</t>
-  </si>
-  <si>
-    <t>16aHuhoBzQ7ph63-sANUzA5p4L7xmUj6E</t>
-  </si>
-  <si>
-    <t>English A Jan 2019 P2.pdf</t>
-  </si>
-  <si>
-    <t>1RxJ8Ip7KwK37d2fa2V1Jb5KqC7G76dcW</t>
-  </si>
-  <si>
-    <t>English A Jan 2018 P2.pdf</t>
-  </si>
-  <si>
-    <t>1J0T4swOjzJKNeGI8ddxAUUXA3vOLZZ99</t>
   </si>
   <si>
     <t>CSEC English A June 2017 P2.pdf</t>
@@ -645,6 +681,54 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
